--- a/biology/Médecine/Podiatre/Podiatre.xlsx
+++ b/biology/Médecine/Podiatre/Podiatre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un podiatre, ou docteur en médecine podiatrique (DPM), est un professionnel de santé (au Canada et aux États-Unis) qui diagnostique et traite les affections et maladies du pied par des moyens médicaux, chimiques, pharmaceutiques, chirurgicaux, mécaniques (orthèses) ou par des manipulations.
 Ce rôle n'est pas l'équivalent du podologue en Europe, puisque le podiatre a un niveau de formation beaucoup plus élevé. En effet, le podiatre est un médecin et chirurgien, ce qui n'est pas le cas du podologue. Il reste inexistant à ce jour en France.
@@ -512,13 +524,12 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation donnant accès au titre DPM est d'une durée de 4 ans après l'obtention d'un « Bachelors degree » suite à quatre ans d'université. Les deux premières années universitaires de médecine podiatrique concernent la formation théorique et de laboratoire dans les sciences biomédicales, comme l'anatomie, la physiologie, la microbiologie, la biochimie, la pharmacologie, la pathologie et la biomécanique. Durant la troisième et quatrième année, l'étudiant est concentré sur les cours cliniques et acquiert de l'expérience dans la clinique universitaire, cliniques communautaires et les hôpitaux accrédités. Les cours cliniques comportent les diagnostics généraux (histoire de santé, examen physique, tests de laboratoire, radiologie diagnostique), thérapies (pharmacologie, médecine physique, orthèses plantaires, prothèses), chirurgies, anesthésie, et traitements de médecine podiatrique. 
-Après les quatre années universitaires de médecine podiatrique, le podiatre doit compléter la formation avec une résidence chirurgicale d'une durée de 3 ans (depuis 2011) dans les institutions de santé approuvés, et passer les examens de Board américain National Podiatric Board of Medicine Examination. La résidence donne une expérience interdisciplinaire avec des rotations en anesthésiologie, médecine interne, maladies infectieuses, dermatologie, chirurgie, soins d'urgence, pédiatrie et soins de plaies. La formation la plus longue actuellement offerte est d'une durée de 3 ans minimum pour les chirurgies de l'arrière pied et la cheville[1].  
-Implantation de la première faculté de médecine podiatrique au Canada
-Cette formation est offerte aux États-Unis et, depuis 2004, un programme de médecine podiatrique est offert au Canada à l'université du Québec à Trois-Rivières (UQTR). Certains cours sont donnés par le New York College of Podiatric Medicine (en) (NYCPM) et un stage obligatoire de quatre mois en quatrième année au NYCPM. L'UQTR a établi une entente de collaboration avec le NYCPM. 
-Une situation particulière touche les étudiants canadiens ayant complété leur formation de quatre ans à l'UQTR qui désirent poursuivre leur formation aux États-Unis et faire un internat (résidence) : en date de 2013, le processus d’accréditation des États-Unis n’est pas encore terminé, afin de reconnaitre l’équivalence de la formation canadienne avec celle des États-Unis. Ils doivent refaire la quatrième année au New York College of Podiatric Medicine (NYCPM) (aux frais des étudiants) afin de pouvoir avoir accès aux « National Boards » et ainsi pouvoir faire une demande d'internat aux États-Unis en médecine podiatrique. Toutefois, cela ne concerne pas les étudiants qui désirent commencer à pratiquer au Québec.
+Après les quatre années universitaires de médecine podiatrique, le podiatre doit compléter la formation avec une résidence chirurgicale d'une durée de 3 ans (depuis 2011) dans les institutions de santé approuvés, et passer les examens de Board américain National Podiatric Board of Medicine Examination. La résidence donne une expérience interdisciplinaire avec des rotations en anesthésiologie, médecine interne, maladies infectieuses, dermatologie, chirurgie, soins d'urgence, pédiatrie et soins de plaies. La formation la plus longue actuellement offerte est d'une durée de 3 ans minimum pour les chirurgies de l'arrière pied et la cheville.  
 </t>
         </is>
       </c>
@@ -544,10 +555,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Implantation de la première faculté de médecine podiatrique au Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette formation est offerte aux États-Unis et, depuis 2004, un programme de médecine podiatrique est offert au Canada à l'université du Québec à Trois-Rivières (UQTR). Certains cours sont donnés par le New York College of Podiatric Medicine (en) (NYCPM) et un stage obligatoire de quatre mois en quatrième année au NYCPM. L'UQTR a établi une entente de collaboration avec le NYCPM. 
+Une situation particulière touche les étudiants canadiens ayant complété leur formation de quatre ans à l'UQTR qui désirent poursuivre leur formation aux États-Unis et faire un internat (résidence) : en date de 2013, le processus d’accréditation des États-Unis n’est pas encore terminé, afin de reconnaitre l’équivalence de la formation canadienne avec celle des États-Unis. Ils doivent refaire la quatrième année au New York College of Podiatric Medicine (NYCPM) (aux frais des étudiants) afin de pouvoir avoir accès aux « National Boards » et ainsi pouvoir faire une demande d'internat aux États-Unis en médecine podiatrique. Toutefois, cela ne concerne pas les étudiants qui désirent commencer à pratiquer au Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Podiatre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Podiatre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Tâches du podiatre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diagnostiquer les problèmes affectant le système musculosquelettique des pieds, i.e. les troubles de posture, d'alignement, les déformations et autres types de déviations touchant les structures osseuses et articulaires des pieds.
 Traiter toute affectation locale du pied
@@ -564,37 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Podiatre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Podiatre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Champs d'action du podiatre</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le podiatre peut être actif partout où il y a des pieds qui nécessitent une attention particulière. Aux États-Unis, la pratique de la podiatrie se fait à la fois en clinique privée et dans les centres hospitaliers. Toutefois, au Québec, la profession se limite actuellement à la pratique privée. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,12 +636,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Instruments de travail du podiatre</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tout professionnel de la santé, le podiatre utilise des instruments propres et précis. Sont utilisés dans le cadre de la pratique professionnelle par le podiatre : des examens radiologiques, des instruments de mesures biomécaniques, une mini pharmacie clinique pour les actes posés de tous les jours, des instruments de chirurgie mineure, une salle chirurgicale  (selon le degré de formation complété avec une résidence), des orthèses plantaires, des appareils orthopédiques servant à corriger des problèmes de dérotation des membres inférieurs chez les enfants, etc.
+          <t>Champs d'action du podiatre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le podiatre peut être actif partout où il y a des pieds qui nécessitent une attention particulière. Aux États-Unis, la pratique de la podiatrie se fait à la fois en clinique privée et dans les centres hospitaliers. Toutefois, au Québec, la profession se limite actuellement à la pratique privée. 
 </t>
         </is>
       </c>
@@ -647,10 +669,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Instruments de travail du podiatre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tout professionnel de la santé, le podiatre utilise des instruments propres et précis. Sont utilisés dans le cadre de la pratique professionnelle par le podiatre : des examens radiologiques, des instruments de mesures biomécaniques, une mini pharmacie clinique pour les actes posés de tous les jours, des instruments de chirurgie mineure, une salle chirurgicale  (selon le degré de formation complété avec une résidence), des orthèses plantaires, des appareils orthopédiques servant à corriger des problèmes de dérotation des membres inférieurs chez les enfants, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Podiatre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Podiatre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>New York College of Podiatric Medicine
 Université du Québec à Trois-Rivières
